--- a/proc_arquivados.xlsx
+++ b/proc_arquivados.xlsx
@@ -1,28 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/700a4c1404bdc9ae/_Finanças/Sub-103.1/Adm/Casos específicos/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{FA1429A5-F255-4299-8B46-9E59FBA32396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5934FD95-F1B9-4F05-B8F5-859DDED7FE89}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-2745" windowWidth="16440" windowHeight="28320" xr2:uid="{01638295-5E73-4283-9A15-49873EFC27C2}"/>
+    <workbookView windowWidth="24000" windowHeight="9500"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$238</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -776,13 +767,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -790,11 +787,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -807,8 +955,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -816,32 +1150,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
+    <cellStyle name="Observação" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Saída" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
+    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Bom" xfId="22" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
+    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
+    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
+    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
+    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
+    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -887,7 +1503,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -920,26 +1536,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -972,23 +1571,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1150,32 +1732,28 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39900519-BF88-4D44-B9DB-712DF6B80E3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1363636363636" customWidth="1"/>
+    <col min="2" max="2" width="10.1363636363636" customWidth="1"/>
+    <col min="3" max="3" width="13.7090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1197,7 +1775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1208,7 +1786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1219,7 +1797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1230,7 +1808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1241,7 +1819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1252,7 +1830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1263,7 +1841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1274,7 +1852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1285,7 +1863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1296,7 +1874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1307,7 +1885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1318,7 +1896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1329,7 +1907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1340,7 +1918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1351,7 +1929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1362,7 +1940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1373,7 +1951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1384,7 +1962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1395,7 +1973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1406,7 +1984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1417,7 +1995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1428,7 +2006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1439,7 +2017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1450,7 +2028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1461,7 +2039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1472,7 +2050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1483,7 +2061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1494,7 +2072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1505,7 +2083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1516,7 +2094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1527,7 +2105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1538,7 +2116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1549,7 +2127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1560,7 +2138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1571,7 +2149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1582,7 +2160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1593,7 +2171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1604,7 +2182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1615,7 +2193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1626,7 +2204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1637,7 +2215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1648,7 +2226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1659,7 +2237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1670,7 +2248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1681,7 +2259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1692,7 +2270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -1703,7 +2281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1714,7 +2292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -1725,7 +2303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -1736,7 +2314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1747,7 +2325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -1758,7 +2336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -1769,7 +2347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -1780,7 +2358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -1791,7 +2369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -1802,7 +2380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -1813,7 +2391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -1824,7 +2402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -1835,7 +2413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -1846,7 +2424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -1857,7 +2435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -1868,7 +2446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -1879,7 +2457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -1890,7 +2468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -1901,7 +2479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -1912,7 +2490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -1923,7 +2501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -1934,7 +2512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -1945,7 +2523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -1956,7 +2534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -1967,7 +2545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -1978,7 +2556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -1989,7 +2567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -2000,7 +2578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -2011,7 +2589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -2022,7 +2600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -2033,7 +2611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -2044,7 +2622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -2055,7 +2633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -2066,7 +2644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -2077,7 +2655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -2088,7 +2666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -2099,7 +2677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -2110,7 +2688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -2121,7 +2699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -2132,7 +2710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -2143,7 +2721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -2154,7 +2732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -2165,7 +2743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -2176,7 +2754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -2187,7 +2765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -2198,7 +2776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -2209,7 +2787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -2220,7 +2798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -2231,7 +2809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -2242,7 +2820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -2253,7 +2831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -2264,7 +2842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>105</v>
       </c>
@@ -2275,7 +2853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -2286,7 +2864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -2297,7 +2875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -2308,7 +2886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -2319,7 +2897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -2330,7 +2908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>111</v>
       </c>
@@ -2341,7 +2919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -2352,7 +2930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>113</v>
       </c>
@@ -2363,7 +2941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -2374,7 +2952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -2385,7 +2963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>116</v>
       </c>
@@ -2396,7 +2974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>117</v>
       </c>
@@ -2407,7 +2985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -2418,7 +2996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>119</v>
       </c>
@@ -2429,7 +3007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>120</v>
       </c>
@@ -2440,7 +3018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>121</v>
       </c>
@@ -2451,7 +3029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>122</v>
       </c>
@@ -2462,7 +3040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>123</v>
       </c>
@@ -2473,7 +3051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>124</v>
       </c>
@@ -2484,7 +3062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>125</v>
       </c>
@@ -2495,7 +3073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>126</v>
       </c>
@@ -2506,7 +3084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>127</v>
       </c>
@@ -2517,7 +3095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -2528,7 +3106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>129</v>
       </c>
@@ -2539,7 +3117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>130</v>
       </c>
@@ -2550,7 +3128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -2561,7 +3139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>132</v>
       </c>
@@ -2572,7 +3150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>133</v>
       </c>
@@ -2583,7 +3161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>134</v>
       </c>
@@ -2594,7 +3172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>135</v>
       </c>
@@ -2605,7 +3183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>136</v>
       </c>
@@ -2616,7 +3194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>137</v>
       </c>
@@ -2627,7 +3205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>138</v>
       </c>
@@ -2638,7 +3216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>139</v>
       </c>
@@ -2649,7 +3227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>140</v>
       </c>
@@ -2660,7 +3238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>141</v>
       </c>
@@ -2671,7 +3249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>142</v>
       </c>
@@ -2682,7 +3260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>143</v>
       </c>
@@ -2693,7 +3271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>144</v>
       </c>
@@ -2704,7 +3282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>145</v>
       </c>
@@ -2715,7 +3293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>146</v>
       </c>
@@ -2726,7 +3304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>147</v>
       </c>
@@ -2737,7 +3315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>148</v>
       </c>
@@ -2748,7 +3326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>149</v>
       </c>
@@ -2759,7 +3337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>150</v>
       </c>
@@ -2770,7 +3348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>151</v>
       </c>
@@ -2781,7 +3359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>152</v>
       </c>
@@ -2792,7 +3370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>153</v>
       </c>
@@ -2803,7 +3381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>154</v>
       </c>
@@ -2814,7 +3392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>155</v>
       </c>
@@ -2825,7 +3403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>156</v>
       </c>
@@ -2836,7 +3414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>157</v>
       </c>
@@ -2847,7 +3425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>158</v>
       </c>
@@ -2858,7 +3436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>159</v>
       </c>
@@ -2869,7 +3447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>160</v>
       </c>
@@ -2880,7 +3458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>161</v>
       </c>
@@ -2891,7 +3469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>162</v>
       </c>
@@ -2902,7 +3480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>163</v>
       </c>
@@ -2913,7 +3491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>164</v>
       </c>
@@ -2924,7 +3502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>165</v>
       </c>
@@ -2935,7 +3513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>166</v>
       </c>
@@ -2946,7 +3524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>167</v>
       </c>
@@ -2957,7 +3535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>168</v>
       </c>
@@ -2968,7 +3546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>169</v>
       </c>
@@ -2979,7 +3557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>170</v>
       </c>
@@ -2990,7 +3568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>171</v>
       </c>
@@ -3001,7 +3579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>172</v>
       </c>
@@ -3012,7 +3590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>173</v>
       </c>
@@ -3023,7 +3601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>174</v>
       </c>
@@ -3034,7 +3612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>175</v>
       </c>
@@ -3045,7 +3623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>176</v>
       </c>
@@ -3056,7 +3634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>177</v>
       </c>
@@ -3067,7 +3645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>178</v>
       </c>
@@ -3078,7 +3656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>179</v>
       </c>
@@ -3089,7 +3667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>180</v>
       </c>
@@ -3100,7 +3678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>181</v>
       </c>
@@ -3111,7 +3689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>182</v>
       </c>
@@ -3122,7 +3700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>183</v>
       </c>
@@ -3133,7 +3711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>184</v>
       </c>
@@ -3144,7 +3722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>185</v>
       </c>
@@ -3155,7 +3733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>186</v>
       </c>
@@ -3166,7 +3744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>187</v>
       </c>
@@ -3177,7 +3755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>188</v>
       </c>
@@ -3188,7 +3766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>189</v>
       </c>
@@ -3199,7 +3777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>190</v>
       </c>
@@ -3210,7 +3788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>191</v>
       </c>
@@ -3221,7 +3799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>192</v>
       </c>
@@ -3232,7 +3810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>193</v>
       </c>
@@ -3243,7 +3821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>194</v>
       </c>
@@ -3254,7 +3832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>195</v>
       </c>
@@ -3265,7 +3843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>196</v>
       </c>
@@ -3276,7 +3854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>197</v>
       </c>
@@ -3287,7 +3865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>198</v>
       </c>
@@ -3298,7 +3876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>199</v>
       </c>
@@ -3309,7 +3887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>200</v>
       </c>
@@ -3320,7 +3898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>201</v>
       </c>
@@ -3331,7 +3909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>202</v>
       </c>
@@ -3342,7 +3920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>203</v>
       </c>
@@ -3353,7 +3931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>204</v>
       </c>
@@ -3364,7 +3942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>205</v>
       </c>
@@ -3375,7 +3953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>206</v>
       </c>
@@ -3386,7 +3964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>207</v>
       </c>
@@ -3397,7 +3975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>208</v>
       </c>
@@ -3408,7 +3986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>209</v>
       </c>
@@ -3419,7 +3997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>210</v>
       </c>
@@ -3430,7 +4008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>211</v>
       </c>
@@ -3441,7 +4019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>212</v>
       </c>
@@ -3452,7 +4030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>213</v>
       </c>
@@ -3463,7 +4041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>214</v>
       </c>
@@ -3474,7 +4052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>215</v>
       </c>
@@ -3485,7 +4063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>216</v>
       </c>
@@ -3496,7 +4074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>217</v>
       </c>
@@ -3507,7 +4085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>218</v>
       </c>
@@ -3518,7 +4096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>219</v>
       </c>
@@ -3529,7 +4107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>220</v>
       </c>
@@ -3540,7 +4118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>221</v>
       </c>
@@ -3551,7 +4129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>222</v>
       </c>
@@ -3562,7 +4140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>223</v>
       </c>
@@ -3573,7 +4151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>224</v>
       </c>
@@ -3584,7 +4162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>225</v>
       </c>
@@ -3595,7 +4173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>226</v>
       </c>
@@ -3606,7 +4184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>227</v>
       </c>
@@ -3617,7 +4195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>228</v>
       </c>
@@ -3628,7 +4206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>229</v>
       </c>
@@ -3639,7 +4217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>230</v>
       </c>
@@ -3650,7 +4228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>231</v>
       </c>
@@ -3661,7 +4239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>232</v>
       </c>
@@ -3672,7 +4250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>233</v>
       </c>
@@ -3683,7 +4261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>234</v>
       </c>
@@ -3694,7 +4272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>235</v>
       </c>
@@ -3705,7 +4283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>236</v>
       </c>
@@ -3716,7 +4294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>237</v>
       </c>
@@ -3727,7 +4305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>238</v>
       </c>
@@ -3738,7 +4316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>239</v>
       </c>
@@ -3749,7 +4327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>240</v>
       </c>
@@ -3760,7 +4338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>241</v>
       </c>
@@ -3771,7 +4349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>242</v>
       </c>
@@ -3782,7 +4360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>243</v>
       </c>
@@ -3794,7 +4372,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{39900519-BF88-4D44-B9DB-712DF6B80E3E}"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C238" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <headerFooter/>
 </worksheet>
 </file>